--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Gnai2-Lhcgr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Gnai2-Lhcgr.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>151.7260716666667</v>
+        <v>144.783305</v>
       </c>
       <c r="H2">
-        <v>455.178215</v>
+        <v>434.349915</v>
       </c>
       <c r="I2">
-        <v>0.2700739458961593</v>
+        <v>0.2430046335191003</v>
       </c>
       <c r="J2">
-        <v>0.2783366498663096</v>
+        <v>0.251012682214973</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -564,22 +564,22 @@
         <v>0.343932</v>
       </c>
       <c r="O2">
-        <v>0.107929744556041</v>
+        <v>0.5024565340298992</v>
       </c>
       <c r="P2">
-        <v>0.1536053250846448</v>
+        <v>0.602355957672625</v>
       </c>
       <c r="Q2">
-        <v>17.39448376015334</v>
+        <v>16.59853721842</v>
       </c>
       <c r="R2">
-        <v>156.55035384138</v>
+        <v>149.38683496578</v>
       </c>
       <c r="S2">
-        <v>0.0291490119918145</v>
+        <v>0.122099265911213</v>
       </c>
       <c r="T2">
-        <v>0.04275399158568543</v>
+        <v>0.1511989845835743</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,46 +602,46 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>151.7260716666667</v>
+        <v>144.783305</v>
       </c>
       <c r="H3">
-        <v>455.178215</v>
+        <v>434.349915</v>
       </c>
       <c r="I3">
-        <v>0.2700739458961593</v>
+        <v>0.2430046335191003</v>
       </c>
       <c r="J3">
-        <v>0.2783366498663096</v>
+        <v>0.251012682214973</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M3">
-        <v>0.9475655000000001</v>
+        <v>0.113523</v>
       </c>
       <c r="N3">
-        <v>1.895131</v>
+        <v>0.227046</v>
       </c>
       <c r="O3">
-        <v>0.892070255443959</v>
+        <v>0.4975434659701009</v>
       </c>
       <c r="P3">
-        <v>0.8463946749153551</v>
+        <v>0.3976440423273752</v>
       </c>
       <c r="Q3">
-        <v>143.7703909618609</v>
+        <v>16.436235133515</v>
       </c>
       <c r="R3">
-        <v>862.6223457711651</v>
+        <v>98.61741080108999</v>
       </c>
       <c r="S3">
-        <v>0.2409249339043448</v>
+        <v>0.1209053676078873</v>
       </c>
       <c r="T3">
-        <v>0.2355826582806241</v>
+        <v>0.09981369763139868</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>82.24887100000001</v>
+        <v>82.24887099999999</v>
       </c>
       <c r="H4">
         <v>246.746613</v>
       </c>
       <c r="I4">
-        <v>0.146403824289839</v>
+        <v>0.1380466950572427</v>
       </c>
       <c r="J4">
-        <v>0.150882936320401</v>
+        <v>0.1425959278859072</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -688,22 +688,22 @@
         <v>0.343932</v>
       </c>
       <c r="O4">
-        <v>0.107929744556041</v>
+        <v>0.5024565340298992</v>
       </c>
       <c r="P4">
-        <v>0.1536053250846448</v>
+        <v>0.602355957672625</v>
       </c>
       <c r="Q4">
-        <v>9.429339566924002</v>
+        <v>9.429339566924</v>
       </c>
       <c r="R4">
-        <v>84.86405610231601</v>
+        <v>84.864056102316</v>
       </c>
       <c r="S4">
-        <v>0.01580132735762983</v>
+        <v>0.06936246393274458</v>
       </c>
       <c r="T4">
-        <v>0.02317642248322095</v>
+        <v>0.08589350670193219</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,46 +726,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>82.24887100000001</v>
+        <v>82.24887099999999</v>
       </c>
       <c r="H5">
         <v>246.746613</v>
       </c>
       <c r="I5">
-        <v>0.146403824289839</v>
+        <v>0.1380466950572427</v>
       </c>
       <c r="J5">
-        <v>0.150882936320401</v>
+        <v>0.1425959278859072</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M5">
-        <v>0.9475655000000001</v>
+        <v>0.113523</v>
       </c>
       <c r="N5">
-        <v>1.895131</v>
+        <v>0.227046</v>
       </c>
       <c r="O5">
-        <v>0.892070255443959</v>
+        <v>0.4975434659701009</v>
       </c>
       <c r="P5">
-        <v>0.8463946749153551</v>
+        <v>0.3976440423273752</v>
       </c>
       <c r="Q5">
-        <v>77.93619257355051</v>
+        <v>9.337138582532999</v>
       </c>
       <c r="R5">
-        <v>467.6171554413031</v>
+        <v>56.022831495198</v>
       </c>
       <c r="S5">
-        <v>0.1306024969322092</v>
+        <v>0.06868423112449812</v>
       </c>
       <c r="T5">
-        <v>0.12770651383718</v>
+        <v>0.05670242118397501</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>123.444321</v>
+        <v>163.8590903333333</v>
       </c>
       <c r="H6">
-        <v>370.332963</v>
+        <v>491.577271</v>
       </c>
       <c r="I6">
-        <v>0.2197321429647646</v>
+        <v>0.2750214756820535</v>
       </c>
       <c r="J6">
-        <v>0.2264546783208506</v>
+        <v>0.284084617144743</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -812,22 +812,22 @@
         <v>0.343932</v>
       </c>
       <c r="O6">
-        <v>0.107929744556041</v>
+        <v>0.5024565340298992</v>
       </c>
       <c r="P6">
-        <v>0.1536053250846448</v>
+        <v>0.602355957672625</v>
       </c>
       <c r="Q6">
-        <v>14.152150736724</v>
+        <v>18.78546155217467</v>
       </c>
       <c r="R6">
-        <v>127.369356630516</v>
+        <v>169.069153969572</v>
       </c>
       <c r="S6">
-        <v>0.02371563406093852</v>
+        <v>0.1381863374549928</v>
       </c>
       <c r="T6">
-        <v>0.03478464448041291</v>
+        <v>0.1711200616202827</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,46 +850,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>123.444321</v>
+        <v>163.8590903333333</v>
       </c>
       <c r="H7">
-        <v>370.332963</v>
+        <v>491.577271</v>
       </c>
       <c r="I7">
-        <v>0.2197321429647646</v>
+        <v>0.2750214756820535</v>
       </c>
       <c r="J7">
-        <v>0.2264546783208506</v>
+        <v>0.284084617144743</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M7">
-        <v>0.9475655000000001</v>
+        <v>0.113523</v>
       </c>
       <c r="N7">
-        <v>1.895131</v>
+        <v>0.227046</v>
       </c>
       <c r="O7">
-        <v>0.892070255443959</v>
+        <v>0.4975434659701009</v>
       </c>
       <c r="P7">
-        <v>0.8463946749153551</v>
+        <v>0.3976440423273752</v>
       </c>
       <c r="Q7">
-        <v>116.9715797505255</v>
+        <v>18.601775511911</v>
       </c>
       <c r="R7">
-        <v>701.829478503153</v>
+        <v>111.610653071466</v>
       </c>
       <c r="S7">
-        <v>0.1960165089038261</v>
+        <v>0.1368351382270607</v>
       </c>
       <c r="T7">
-        <v>0.1916700338404377</v>
+        <v>0.1129645555244603</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>50.0323125</v>
+        <v>57.0238095</v>
       </c>
       <c r="H8">
-        <v>100.064625</v>
+        <v>114.047619</v>
       </c>
       <c r="I8">
-        <v>0.08905802352064279</v>
+        <v>0.09570889357312636</v>
       </c>
       <c r="J8">
-        <v>0.06118845668531954</v>
+        <v>0.06590860906562239</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -936,22 +936,22 @@
         <v>0.343932</v>
       </c>
       <c r="O8">
-        <v>0.107929744556041</v>
+        <v>0.5024565340298992</v>
       </c>
       <c r="P8">
-        <v>0.1536053250846448</v>
+        <v>0.602355957672625</v>
       </c>
       <c r="Q8">
-        <v>5.735904434250001</v>
+        <v>6.537437616318001</v>
       </c>
       <c r="R8">
-        <v>34.4154266055</v>
+        <v>39.224625697908</v>
       </c>
       <c r="S8">
-        <v>0.009612009729248866</v>
+        <v>0.04808955894058956</v>
       </c>
       <c r="T8">
-        <v>0.009398872780576214</v>
+        <v>0.03970044333259363</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,46 +974,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>50.0323125</v>
+        <v>57.0238095</v>
       </c>
       <c r="H9">
-        <v>100.064625</v>
+        <v>114.047619</v>
       </c>
       <c r="I9">
-        <v>0.08905802352064279</v>
+        <v>0.09570889357312636</v>
       </c>
       <c r="J9">
-        <v>0.06118845668531954</v>
+        <v>0.06590860906562239</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M9">
-        <v>0.9475655000000001</v>
+        <v>0.113523</v>
       </c>
       <c r="N9">
-        <v>1.895131</v>
+        <v>0.227046</v>
       </c>
       <c r="O9">
-        <v>0.892070255443959</v>
+        <v>0.4975434659701009</v>
       </c>
       <c r="P9">
-        <v>0.8463946749153551</v>
+        <v>0.3976440423273752</v>
       </c>
       <c r="Q9">
-        <v>47.40889321021876</v>
+        <v>6.4735139258685</v>
       </c>
       <c r="R9">
-        <v>189.635572840875</v>
+        <v>25.894055703474</v>
       </c>
       <c r="S9">
-        <v>0.07944601379139393</v>
+        <v>0.0476193346325368</v>
       </c>
       <c r="T9">
-        <v>0.05178958390474332</v>
+        <v>0.02620816573302877</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>154.3429766666667</v>
+        <v>147.8896333333333</v>
       </c>
       <c r="H10">
-        <v>463.02893</v>
+        <v>443.6689</v>
       </c>
       <c r="I10">
-        <v>0.2747320633285943</v>
+        <v>0.2482183021684772</v>
       </c>
       <c r="J10">
-        <v>0.2831372788071194</v>
+        <v>0.2563981636887546</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1060,22 +1060,22 @@
         <v>0.343932</v>
       </c>
       <c r="O10">
-        <v>0.107929744556041</v>
+        <v>0.5024565340298992</v>
       </c>
       <c r="P10">
-        <v>0.1536053250846448</v>
+        <v>0.602355957672625</v>
       </c>
       <c r="Q10">
-        <v>17.69449621697333</v>
+        <v>16.95465912386667</v>
       </c>
       <c r="R10">
-        <v>159.25046595276</v>
+        <v>152.5919321148</v>
       </c>
       <c r="S10">
-        <v>0.02965176141640925</v>
+        <v>0.1247189077903593</v>
       </c>
       <c r="T10">
-        <v>0.04349139375474928</v>
+        <v>0.1544429614342422</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,46 +1098,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>154.3429766666667</v>
+        <v>147.8896333333333</v>
       </c>
       <c r="H11">
-        <v>463.02893</v>
+        <v>443.6689</v>
       </c>
       <c r="I11">
-        <v>0.2747320633285943</v>
+        <v>0.2482183021684772</v>
       </c>
       <c r="J11">
-        <v>0.2831372788071194</v>
+        <v>0.2563981636887546</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M11">
-        <v>0.9475655000000001</v>
+        <v>0.113523</v>
       </c>
       <c r="N11">
-        <v>1.895131</v>
+        <v>0.227046</v>
       </c>
       <c r="O11">
-        <v>0.892070255443959</v>
+        <v>0.4975434659701009</v>
       </c>
       <c r="P11">
-        <v>0.8463946749153551</v>
+        <v>0.3976440423273752</v>
       </c>
       <c r="Q11">
-        <v>146.2500798566383</v>
+        <v>16.7888748449</v>
       </c>
       <c r="R11">
-        <v>877.5004791398301</v>
+        <v>100.7332490694</v>
       </c>
       <c r="S11">
-        <v>0.245080301912185</v>
+        <v>0.123499394378118</v>
       </c>
       <c r="T11">
-        <v>0.2396458850523701</v>
+        <v>0.1019552022545124</v>
       </c>
     </row>
   </sheetData>
